--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/99/word_level_predictions_99.xlsx
@@ -2114,210 +2114,210 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6950,418 +6950,418 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12693,289 +12693,289 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>19</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>19</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14785,11 +14785,11 @@
         </is>
       </c>
       <c r="I276" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K276" s="2" t="b">
@@ -14837,11 +14837,11 @@
         </is>
       </c>
       <c r="I277" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K277" s="2" t="b">
@@ -14889,11 +14889,11 @@
         </is>
       </c>
       <c r="I278" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K278" s="2" t="b">
@@ -14941,11 +14941,11 @@
         </is>
       </c>
       <c r="I279" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K279" s="2" t="b">
@@ -14993,11 +14993,11 @@
         </is>
       </c>
       <c r="I280" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K280" s="2" t="b">
@@ -15045,11 +15045,11 @@
         </is>
       </c>
       <c r="I281" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K281" s="2" t="b">
@@ -15097,11 +15097,11 @@
         </is>
       </c>
       <c r="I282" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K282" s="2" t="b">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="F283" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G283" s="2" t="b">
@@ -15149,11 +15149,11 @@
         </is>
       </c>
       <c r="I283" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K283" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/99/word_level_predictions_99.xlsx
@@ -2114,210 +2114,210 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>9</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6950,418 +6950,418 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>9</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>3</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>9</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>4</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>9</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>5</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>9</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>6</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>9</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>7</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>9</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>8</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>9</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>9</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>9</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>10</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,289 +12693,289 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14785,11 +14785,11 @@
         </is>
       </c>
       <c r="I276" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K276" s="2" t="b">
@@ -14837,11 +14837,11 @@
         </is>
       </c>
       <c r="I277" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K277" s="2" t="b">
@@ -14889,11 +14889,11 @@
         </is>
       </c>
       <c r="I278" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K278" s="2" t="b">
@@ -14941,11 +14941,11 @@
         </is>
       </c>
       <c r="I279" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K279" s="2" t="b">
@@ -14993,11 +14993,11 @@
         </is>
       </c>
       <c r="I280" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K280" s="2" t="b">
@@ -15045,11 +15045,11 @@
         </is>
       </c>
       <c r="I281" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K281" s="2" t="b">
@@ -15097,11 +15097,11 @@
         </is>
       </c>
       <c r="I282" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K282" s="2" t="b">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="F283" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G283" s="2" t="b">
@@ -15149,11 +15149,11 @@
         </is>
       </c>
       <c r="I283" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K283" s="2" t="b">
